--- a/biology/Zoologie/Atelopus_spumarius/Atelopus_spumarius.xlsx
+++ b/biology/Zoologie/Atelopus_spumarius/Atelopus_spumarius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atelopus spumarius est une espèce d'amphibiens de la famille des Bufonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atelopus spumarius est une espèce d'amphibiens de la famille des Bufonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre :
 au Brésil en Amazonas ;
 dans l'est de l'Équateur ;
 dans l'Est du Pérou.
@@ -546,9 +560,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 26 à 29 mm et les femelles de 31 à 39 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 26 à 29 mm et les femelles de 31 à 39 mm.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces Atelopus hoogmoedi[3] et Atelopus pulcher[4] ont été relevées de leurs synonymies avec Atelopus spumarius.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces Atelopus hoogmoedi et Atelopus pulcher ont été relevées de leurs synonymies avec Atelopus spumarius.
 </t>
         </is>
       </c>
@@ -608,7 +626,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cope, 1871 : Ninth Contribution to the Herpetology of Tropical America. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 23, no 2, p. 200-224 (texte intégral).</t>
         </is>
